--- a/CHL/CHL_platemap_OFAVPP.xlsx
+++ b/CHL/CHL_platemap_OFAVPP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/TO DO : ORGANIZE/CHL/Transplants_Platemaps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/CHL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A0FF3-BF79-FD4A-A5C5-3616C6A50F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EAFB1B-5F16-524F-94D9-9F4A2455EE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="500" windowWidth="14240" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
+    <workbookView xWindow="1940" yWindow="500" windowWidth="23660" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -466,13 +466,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -487,8 +501,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B7DC77-4F53-384E-B067-72BD8D0D51CB}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +858,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -851,7 +866,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -859,7 +874,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -867,7 +882,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -875,7 +890,7 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -883,7 +898,7 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -891,7 +906,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -899,7 +914,7 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -907,7 +922,7 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -915,7 +930,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -923,7 +938,7 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -931,7 +946,7 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -939,7 +954,7 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -947,7 +962,7 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -955,7 +970,7 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -963,7 +978,7 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -971,7 +986,7 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -979,7 +994,7 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -987,7 +1002,7 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -995,7 +1010,7 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1003,7 +1018,7 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1011,7 +1026,7 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1019,7 +1034,7 @@
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1027,7 +1042,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1035,7 +1050,7 @@
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1043,7 +1058,7 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1051,7 +1066,7 @@
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1059,7 +1074,7 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1067,7 +1082,7 @@
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1075,7 +1090,7 @@
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1083,7 +1098,7 @@
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1091,7 +1106,7 @@
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1099,7 +1114,7 @@
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1107,7 +1122,7 @@
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1115,7 +1130,7 @@
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1123,7 +1138,7 @@
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1131,7 +1146,7 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1139,7 +1154,7 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1147,7 +1162,7 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1155,7 +1170,7 @@
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1163,7 +1178,7 @@
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1171,7 +1186,7 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1179,7 +1194,7 @@
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1187,7 +1202,7 @@
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1195,7 +1210,7 @@
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1203,7 +1218,7 @@
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1211,7 +1226,7 @@
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1219,7 +1234,7 @@
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1227,7 +1242,7 @@
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1235,7 +1250,7 @@
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1243,7 +1258,7 @@
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1251,7 +1266,7 @@
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1259,7 +1274,7 @@
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1267,7 +1282,7 @@
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1275,7 +1290,7 @@
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1283,7 +1298,7 @@
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1291,7 +1306,7 @@
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1299,7 +1314,7 @@
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1307,7 +1322,7 @@
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1315,7 +1330,7 @@
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1323,7 +1338,7 @@
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1331,7 +1346,7 @@
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1339,7 +1354,7 @@
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1347,7 +1362,7 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1355,7 +1370,7 @@
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1363,7 +1378,7 @@
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1371,7 +1386,7 @@
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1379,7 +1394,7 @@
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1387,7 +1402,7 @@
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1395,7 +1410,7 @@
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1403,7 +1418,7 @@
       <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1411,7 +1426,7 @@
       <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1419,7 +1434,7 @@
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1427,7 +1442,7 @@
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1435,7 +1450,7 @@
       <c r="A78" t="s">
         <v>80</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1443,7 +1458,7 @@
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1451,7 +1466,7 @@
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1459,7 +1474,7 @@
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>138</v>
       </c>
     </row>
